--- a/important doc/methodology.xlsx
+++ b/important doc/methodology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A5304-C1A4-4046-8BD3-8A4C43263607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12B834-FF2D-4C29-A832-B9AFA533B6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>2015-2019</t>
   </si>
@@ -525,7 +525,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Arrange</a:t>
+            <a:t>Arrange the data and do</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -533,7 +533,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> the </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
@@ -541,7 +541,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>NDVI</a:t>
+            <a:t>correlation</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -549,33 +549,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> values</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>get</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> only ripening phase NDVI values and its paddy yield per acre</a:t>
+            <a:t> analysis NDVI index and harvest per acre</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2862,7 +2836,7 @@
   <dimension ref="L5:AC45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="BT25" sqref="BT25"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/important doc/methodology.xlsx
+++ b/important doc/methodology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12B834-FF2D-4C29-A832-B9AFA533B6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C9330-0632-4FB5-B735-31D4214CF9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
   </bookViews>
@@ -228,7 +228,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -495,7 +495,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2835,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523F2B06-AE13-442F-8FDA-FE30199D9836}">
   <dimension ref="L5:AC45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/important doc/methodology.xlsx
+++ b/important doc/methodology.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C9330-0632-4FB5-B735-31D4214CF9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850968D9-EE99-4E5B-9573-A3155CB14D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="over-rall" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2525,6 +2526,867 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9397CCA-0DCB-4797-A420-F0A43A0E7A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4644390" y="375285"/>
+          <a:ext cx="1828800" cy="1312545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(B11,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>B08,B04) /</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B11,B08,B02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(B04,B03,B02)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Sentinel-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>images dataset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2015-2019</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(for 8 paddy seasonal)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF2F618-CAF2-4172-A118-4A45762FFB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132320" y="504825"/>
+          <a:ext cx="2133600" cy="1026795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Rearrange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> images dataset into 4 classes(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>langing, vegitative, reproduction,ripening</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) each of bands combinations using local agriculture data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEA4A12-0962-4B59-B1E0-0DF91048A48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217920" y="2377440"/>
+          <a:ext cx="1493520" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Train</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> set of each bands combinations images dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F68A89-C217-4DFA-810A-B8F15072F8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8473440" y="2346960"/>
+          <a:ext cx="1493520" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>test set of each bands combinations images dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83CC54-08C0-4359-B04D-D27D3224A666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3703320"/>
+          <a:ext cx="1493520" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>multiclass SVM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> classifier model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD6F785-B7A9-406D-ADBF-86C5ACA4E7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7452360" y="4701540"/>
+          <a:ext cx="1493520" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Best</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> bands combination for paddy stage classification</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>113348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9439CF9-3AC7-4B5C-8F75-4372660443CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6473190" y="1018223"/>
+          <a:ext cx="659130" cy="13335"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335B7163-3D82-4360-9C2C-5911DE06279D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7171373" y="1324927"/>
+          <a:ext cx="821055" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DBC6A6-D078-4156-82D6-6A639BA3B4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8309610" y="1451610"/>
+          <a:ext cx="800100" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422F6F4B-E76F-4CA6-9FA0-24AF94BE6270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6793230" y="3326130"/>
+          <a:ext cx="807720" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3033B71E-15E3-4B1D-8C85-B67757DAA972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8652510" y="3394710"/>
+          <a:ext cx="838200" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90783C66-7419-43C4-A105-EA2863FBA987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8176260" y="4221480"/>
+          <a:ext cx="22860" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2835,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523F2B06-AE13-442F-8FDA-FE30199D9836}">
   <dimension ref="L5:AC45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2882,4 +3744,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ABF74F-3CB2-4440-85D0-5B996860E316}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BO6" sqref="BO6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/important doc/methodology.xlsx
+++ b/important doc/methodology.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850968D9-EE99-4E5B-9573-A3155CB14D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06299F-32A0-4CF0-9DD0-551C80EBE241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
   </bookViews>
   <sheets>
     <sheet name="over-rall" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>2015-2019</t>
   </si>
@@ -50,6 +52,36 @@
   </si>
   <si>
     <t>Task still processing</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>vegitative</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>ripening</t>
+  </si>
+  <si>
+    <t>Mean NDVI in AOI</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>th</t>
   </si>
 </sst>
 </file>
@@ -3387,6 +3419,4052 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E370A0A9-D99E-403C-9793-B19C7CCAC07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823460" y="541020"/>
+          <a:ext cx="1729740" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2015-2018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (6 paddy stages) linear gradient(m) of NDVI values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Y=mX+c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E1C9EA-1C07-4A91-9598-4C3B34E9C1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1691640"/>
+          <a:ext cx="1729740" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2015-2018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (6 paddy stages)poly gradient(a &amp; b) of NDVI values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Y=aX^2+bX+c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441F7AF1-1AF2-4A9B-8855-D16E95E89FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383780" y="1805940"/>
+          <a:ext cx="1051560" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Linear</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Model </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A687EB-9242-46EB-98AC-36C8F68C88B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2865120"/>
+          <a:ext cx="1729740" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2015-2018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (6 paddy stages) paddy yield record</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362C5D37-10C4-41D2-8DD5-BE5AEF06A00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8785860" y="464820"/>
+          <a:ext cx="1729740" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2019 (2 paddy stages) paddy yield record</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47B713B-1EBF-481C-AF1A-56AB73B5DA2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9136380" y="1805940"/>
+          <a:ext cx="1051560" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>accuracy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> assesment of model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC460842-7A52-4237-A6AC-4C008D3FF931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="979170"/>
+          <a:ext cx="1356360" cy="826770"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12123D7-BCEF-4FC2-92EA-BC863F2AB490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6530340" y="2129790"/>
+          <a:ext cx="853440" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B7663A-034D-4720-AA8D-088FA5306B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6530340" y="2453640"/>
+          <a:ext cx="1379220" cy="849630"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53981B1E-0626-46A7-8F8D-ADCDAD9FFA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435340" y="2129790"/>
+          <a:ext cx="701040" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECF50BD-9261-4D93-8D01-E81BF66D3DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9650730" y="1341120"/>
+          <a:ext cx="11430" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1592FF-F0F2-4011-8046-85799638A755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="2750820"/>
+          <a:ext cx="4518660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7255C084-842D-40DD-84A2-FA2D13DEE391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1455420" y="1714500"/>
+          <a:ext cx="2087880" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2265594-04A3-4786-9768-1741E3902B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3476626" y="742950"/>
+          <a:ext cx="0" cy="2100263"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9D5172-E2E4-4F1A-86B2-1E57EF02E0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4605339" y="738188"/>
+          <a:ext cx="0" cy="2100263"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13FC0A2-B3E6-4C29-BDA2-2ABA88D43D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5719764" y="762000"/>
+          <a:ext cx="0" cy="2100263"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Freeform: Shape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE99AE57-7243-4ADA-9295-17A80A550A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="866776"/>
+          <a:ext cx="3757613" cy="1423988"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3757613"/>
+            <a:gd name="connsiteY0" fmla="*/ 1247775 h 1247775"/>
+            <a:gd name="connsiteX1" fmla="*/ 266700 w 3757613"/>
+            <a:gd name="connsiteY1" fmla="*/ 1238250 h 1247775"/>
+            <a:gd name="connsiteX2" fmla="*/ 295275 w 3757613"/>
+            <a:gd name="connsiteY2" fmla="*/ 1233487 h 1247775"/>
+            <a:gd name="connsiteX3" fmla="*/ 319088 w 3757613"/>
+            <a:gd name="connsiteY3" fmla="*/ 1223962 h 1247775"/>
+            <a:gd name="connsiteX4" fmla="*/ 347663 w 3757613"/>
+            <a:gd name="connsiteY4" fmla="*/ 1214437 h 1247775"/>
+            <a:gd name="connsiteX5" fmla="*/ 376238 w 3757613"/>
+            <a:gd name="connsiteY5" fmla="*/ 1200150 h 1247775"/>
+            <a:gd name="connsiteX6" fmla="*/ 390525 w 3757613"/>
+            <a:gd name="connsiteY6" fmla="*/ 1190625 h 1247775"/>
+            <a:gd name="connsiteX7" fmla="*/ 404813 w 3757613"/>
+            <a:gd name="connsiteY7" fmla="*/ 1185862 h 1247775"/>
+            <a:gd name="connsiteX8" fmla="*/ 423863 w 3757613"/>
+            <a:gd name="connsiteY8" fmla="*/ 1176337 h 1247775"/>
+            <a:gd name="connsiteX9" fmla="*/ 438150 w 3757613"/>
+            <a:gd name="connsiteY9" fmla="*/ 1166812 h 1247775"/>
+            <a:gd name="connsiteX10" fmla="*/ 466725 w 3757613"/>
+            <a:gd name="connsiteY10" fmla="*/ 1157287 h 1247775"/>
+            <a:gd name="connsiteX11" fmla="*/ 519113 w 3757613"/>
+            <a:gd name="connsiteY11" fmla="*/ 1133475 h 1247775"/>
+            <a:gd name="connsiteX12" fmla="*/ 552450 w 3757613"/>
+            <a:gd name="connsiteY12" fmla="*/ 1109662 h 1247775"/>
+            <a:gd name="connsiteX13" fmla="*/ 581025 w 3757613"/>
+            <a:gd name="connsiteY13" fmla="*/ 1090612 h 1247775"/>
+            <a:gd name="connsiteX14" fmla="*/ 595313 w 3757613"/>
+            <a:gd name="connsiteY14" fmla="*/ 1085850 h 1247775"/>
+            <a:gd name="connsiteX15" fmla="*/ 628650 w 3757613"/>
+            <a:gd name="connsiteY15" fmla="*/ 1066800 h 1247775"/>
+            <a:gd name="connsiteX16" fmla="*/ 642938 w 3757613"/>
+            <a:gd name="connsiteY16" fmla="*/ 1057275 h 1247775"/>
+            <a:gd name="connsiteX17" fmla="*/ 657225 w 3757613"/>
+            <a:gd name="connsiteY17" fmla="*/ 1052512 h 1247775"/>
+            <a:gd name="connsiteX18" fmla="*/ 685800 w 3757613"/>
+            <a:gd name="connsiteY18" fmla="*/ 1038225 h 1247775"/>
+            <a:gd name="connsiteX19" fmla="*/ 714375 w 3757613"/>
+            <a:gd name="connsiteY19" fmla="*/ 1014412 h 1247775"/>
+            <a:gd name="connsiteX20" fmla="*/ 723900 w 3757613"/>
+            <a:gd name="connsiteY20" fmla="*/ 1000125 h 1247775"/>
+            <a:gd name="connsiteX21" fmla="*/ 766763 w 3757613"/>
+            <a:gd name="connsiteY21" fmla="*/ 962025 h 1247775"/>
+            <a:gd name="connsiteX22" fmla="*/ 795338 w 3757613"/>
+            <a:gd name="connsiteY22" fmla="*/ 938212 h 1247775"/>
+            <a:gd name="connsiteX23" fmla="*/ 819150 w 3757613"/>
+            <a:gd name="connsiteY23" fmla="*/ 909637 h 1247775"/>
+            <a:gd name="connsiteX24" fmla="*/ 833438 w 3757613"/>
+            <a:gd name="connsiteY24" fmla="*/ 900112 h 1247775"/>
+            <a:gd name="connsiteX25" fmla="*/ 862013 w 3757613"/>
+            <a:gd name="connsiteY25" fmla="*/ 871537 h 1247775"/>
+            <a:gd name="connsiteX26" fmla="*/ 871538 w 3757613"/>
+            <a:gd name="connsiteY26" fmla="*/ 857250 h 1247775"/>
+            <a:gd name="connsiteX27" fmla="*/ 900113 w 3757613"/>
+            <a:gd name="connsiteY27" fmla="*/ 838200 h 1247775"/>
+            <a:gd name="connsiteX28" fmla="*/ 928688 w 3757613"/>
+            <a:gd name="connsiteY28" fmla="*/ 814387 h 1247775"/>
+            <a:gd name="connsiteX29" fmla="*/ 942975 w 3757613"/>
+            <a:gd name="connsiteY29" fmla="*/ 800100 h 1247775"/>
+            <a:gd name="connsiteX30" fmla="*/ 971550 w 3757613"/>
+            <a:gd name="connsiteY30" fmla="*/ 781050 h 1247775"/>
+            <a:gd name="connsiteX31" fmla="*/ 985838 w 3757613"/>
+            <a:gd name="connsiteY31" fmla="*/ 771525 h 1247775"/>
+            <a:gd name="connsiteX32" fmla="*/ 1014413 w 3757613"/>
+            <a:gd name="connsiteY32" fmla="*/ 752475 h 1247775"/>
+            <a:gd name="connsiteX33" fmla="*/ 1023938 w 3757613"/>
+            <a:gd name="connsiteY33" fmla="*/ 738187 h 1247775"/>
+            <a:gd name="connsiteX34" fmla="*/ 1038225 w 3757613"/>
+            <a:gd name="connsiteY34" fmla="*/ 733425 h 1247775"/>
+            <a:gd name="connsiteX35" fmla="*/ 1057275 w 3757613"/>
+            <a:gd name="connsiteY35" fmla="*/ 719137 h 1247775"/>
+            <a:gd name="connsiteX36" fmla="*/ 1071563 w 3757613"/>
+            <a:gd name="connsiteY36" fmla="*/ 704850 h 1247775"/>
+            <a:gd name="connsiteX37" fmla="*/ 1085850 w 3757613"/>
+            <a:gd name="connsiteY37" fmla="*/ 695325 h 1247775"/>
+            <a:gd name="connsiteX38" fmla="*/ 1100138 w 3757613"/>
+            <a:gd name="connsiteY38" fmla="*/ 676275 h 1247775"/>
+            <a:gd name="connsiteX39" fmla="*/ 1128713 w 3757613"/>
+            <a:gd name="connsiteY39" fmla="*/ 652462 h 1247775"/>
+            <a:gd name="connsiteX40" fmla="*/ 1162050 w 3757613"/>
+            <a:gd name="connsiteY40" fmla="*/ 619125 h 1247775"/>
+            <a:gd name="connsiteX41" fmla="*/ 1185863 w 3757613"/>
+            <a:gd name="connsiteY41" fmla="*/ 595312 h 1247775"/>
+            <a:gd name="connsiteX42" fmla="*/ 1209675 w 3757613"/>
+            <a:gd name="connsiteY42" fmla="*/ 566737 h 1247775"/>
+            <a:gd name="connsiteX43" fmla="*/ 1223963 w 3757613"/>
+            <a:gd name="connsiteY43" fmla="*/ 557212 h 1247775"/>
+            <a:gd name="connsiteX44" fmla="*/ 1247775 w 3757613"/>
+            <a:gd name="connsiteY44" fmla="*/ 533400 h 1247775"/>
+            <a:gd name="connsiteX45" fmla="*/ 1257300 w 3757613"/>
+            <a:gd name="connsiteY45" fmla="*/ 519112 h 1247775"/>
+            <a:gd name="connsiteX46" fmla="*/ 1271588 w 3757613"/>
+            <a:gd name="connsiteY46" fmla="*/ 504825 h 1247775"/>
+            <a:gd name="connsiteX47" fmla="*/ 1281113 w 3757613"/>
+            <a:gd name="connsiteY47" fmla="*/ 490537 h 1247775"/>
+            <a:gd name="connsiteX48" fmla="*/ 1295400 w 3757613"/>
+            <a:gd name="connsiteY48" fmla="*/ 481012 h 1247775"/>
+            <a:gd name="connsiteX49" fmla="*/ 1319213 w 3757613"/>
+            <a:gd name="connsiteY49" fmla="*/ 452437 h 1247775"/>
+            <a:gd name="connsiteX50" fmla="*/ 1333500 w 3757613"/>
+            <a:gd name="connsiteY50" fmla="*/ 442912 h 1247775"/>
+            <a:gd name="connsiteX51" fmla="*/ 1347788 w 3757613"/>
+            <a:gd name="connsiteY51" fmla="*/ 428625 h 1247775"/>
+            <a:gd name="connsiteX52" fmla="*/ 1362075 w 3757613"/>
+            <a:gd name="connsiteY52" fmla="*/ 419100 h 1247775"/>
+            <a:gd name="connsiteX53" fmla="*/ 1376363 w 3757613"/>
+            <a:gd name="connsiteY53" fmla="*/ 404812 h 1247775"/>
+            <a:gd name="connsiteX54" fmla="*/ 1404938 w 3757613"/>
+            <a:gd name="connsiteY54" fmla="*/ 385762 h 1247775"/>
+            <a:gd name="connsiteX55" fmla="*/ 1443038 w 3757613"/>
+            <a:gd name="connsiteY55" fmla="*/ 357187 h 1247775"/>
+            <a:gd name="connsiteX56" fmla="*/ 1462088 w 3757613"/>
+            <a:gd name="connsiteY56" fmla="*/ 342900 h 1247775"/>
+            <a:gd name="connsiteX57" fmla="*/ 1504950 w 3757613"/>
+            <a:gd name="connsiteY57" fmla="*/ 319087 h 1247775"/>
+            <a:gd name="connsiteX58" fmla="*/ 1533525 w 3757613"/>
+            <a:gd name="connsiteY58" fmla="*/ 300037 h 1247775"/>
+            <a:gd name="connsiteX59" fmla="*/ 1557338 w 3757613"/>
+            <a:gd name="connsiteY59" fmla="*/ 285750 h 1247775"/>
+            <a:gd name="connsiteX60" fmla="*/ 1585913 w 3757613"/>
+            <a:gd name="connsiteY60" fmla="*/ 261937 h 1247775"/>
+            <a:gd name="connsiteX61" fmla="*/ 1624013 w 3757613"/>
+            <a:gd name="connsiteY61" fmla="*/ 242887 h 1247775"/>
+            <a:gd name="connsiteX62" fmla="*/ 1666875 w 3757613"/>
+            <a:gd name="connsiteY62" fmla="*/ 214312 h 1247775"/>
+            <a:gd name="connsiteX63" fmla="*/ 1681163 w 3757613"/>
+            <a:gd name="connsiteY63" fmla="*/ 204787 h 1247775"/>
+            <a:gd name="connsiteX64" fmla="*/ 1695450 w 3757613"/>
+            <a:gd name="connsiteY64" fmla="*/ 195262 h 1247775"/>
+            <a:gd name="connsiteX65" fmla="*/ 1709738 w 3757613"/>
+            <a:gd name="connsiteY65" fmla="*/ 190500 h 1247775"/>
+            <a:gd name="connsiteX66" fmla="*/ 1728788 w 3757613"/>
+            <a:gd name="connsiteY66" fmla="*/ 176212 h 1247775"/>
+            <a:gd name="connsiteX67" fmla="*/ 1743075 w 3757613"/>
+            <a:gd name="connsiteY67" fmla="*/ 171450 h 1247775"/>
+            <a:gd name="connsiteX68" fmla="*/ 1771650 w 3757613"/>
+            <a:gd name="connsiteY68" fmla="*/ 152400 h 1247775"/>
+            <a:gd name="connsiteX69" fmla="*/ 1800225 w 3757613"/>
+            <a:gd name="connsiteY69" fmla="*/ 138112 h 1247775"/>
+            <a:gd name="connsiteX70" fmla="*/ 1833563 w 3757613"/>
+            <a:gd name="connsiteY70" fmla="*/ 114300 h 1247775"/>
+            <a:gd name="connsiteX71" fmla="*/ 1847850 w 3757613"/>
+            <a:gd name="connsiteY71" fmla="*/ 109537 h 1247775"/>
+            <a:gd name="connsiteX72" fmla="*/ 1862138 w 3757613"/>
+            <a:gd name="connsiteY72" fmla="*/ 100012 h 1247775"/>
+            <a:gd name="connsiteX73" fmla="*/ 1876425 w 3757613"/>
+            <a:gd name="connsiteY73" fmla="*/ 95250 h 1247775"/>
+            <a:gd name="connsiteX74" fmla="*/ 1895475 w 3757613"/>
+            <a:gd name="connsiteY74" fmla="*/ 85725 h 1247775"/>
+            <a:gd name="connsiteX75" fmla="*/ 1909763 w 3757613"/>
+            <a:gd name="connsiteY75" fmla="*/ 80962 h 1247775"/>
+            <a:gd name="connsiteX76" fmla="*/ 1924050 w 3757613"/>
+            <a:gd name="connsiteY76" fmla="*/ 71437 h 1247775"/>
+            <a:gd name="connsiteX77" fmla="*/ 1971675 w 3757613"/>
+            <a:gd name="connsiteY77" fmla="*/ 57150 h 1247775"/>
+            <a:gd name="connsiteX78" fmla="*/ 2000250 w 3757613"/>
+            <a:gd name="connsiteY78" fmla="*/ 47625 h 1247775"/>
+            <a:gd name="connsiteX79" fmla="*/ 2028825 w 3757613"/>
+            <a:gd name="connsiteY79" fmla="*/ 38100 h 1247775"/>
+            <a:gd name="connsiteX80" fmla="*/ 2057400 w 3757613"/>
+            <a:gd name="connsiteY80" fmla="*/ 33337 h 1247775"/>
+            <a:gd name="connsiteX81" fmla="*/ 2085975 w 3757613"/>
+            <a:gd name="connsiteY81" fmla="*/ 23812 h 1247775"/>
+            <a:gd name="connsiteX82" fmla="*/ 2100263 w 3757613"/>
+            <a:gd name="connsiteY82" fmla="*/ 19050 h 1247775"/>
+            <a:gd name="connsiteX83" fmla="*/ 2152650 w 3757613"/>
+            <a:gd name="connsiteY83" fmla="*/ 9525 h 1247775"/>
+            <a:gd name="connsiteX84" fmla="*/ 2305050 w 3757613"/>
+            <a:gd name="connsiteY84" fmla="*/ 0 h 1247775"/>
+            <a:gd name="connsiteX85" fmla="*/ 2414588 w 3757613"/>
+            <a:gd name="connsiteY85" fmla="*/ 4762 h 1247775"/>
+            <a:gd name="connsiteX86" fmla="*/ 2457450 w 3757613"/>
+            <a:gd name="connsiteY86" fmla="*/ 9525 h 1247775"/>
+            <a:gd name="connsiteX87" fmla="*/ 2500313 w 3757613"/>
+            <a:gd name="connsiteY87" fmla="*/ 23812 h 1247775"/>
+            <a:gd name="connsiteX88" fmla="*/ 2552700 w 3757613"/>
+            <a:gd name="connsiteY88" fmla="*/ 33337 h 1247775"/>
+            <a:gd name="connsiteX89" fmla="*/ 2590800 w 3757613"/>
+            <a:gd name="connsiteY89" fmla="*/ 47625 h 1247775"/>
+            <a:gd name="connsiteX90" fmla="*/ 2609850 w 3757613"/>
+            <a:gd name="connsiteY90" fmla="*/ 52387 h 1247775"/>
+            <a:gd name="connsiteX91" fmla="*/ 2657475 w 3757613"/>
+            <a:gd name="connsiteY91" fmla="*/ 71437 h 1247775"/>
+            <a:gd name="connsiteX92" fmla="*/ 2695575 w 3757613"/>
+            <a:gd name="connsiteY92" fmla="*/ 80962 h 1247775"/>
+            <a:gd name="connsiteX93" fmla="*/ 2738438 w 3757613"/>
+            <a:gd name="connsiteY93" fmla="*/ 104775 h 1247775"/>
+            <a:gd name="connsiteX94" fmla="*/ 2752725 w 3757613"/>
+            <a:gd name="connsiteY94" fmla="*/ 109537 h 1247775"/>
+            <a:gd name="connsiteX95" fmla="*/ 2781300 w 3757613"/>
+            <a:gd name="connsiteY95" fmla="*/ 128587 h 1247775"/>
+            <a:gd name="connsiteX96" fmla="*/ 2805113 w 3757613"/>
+            <a:gd name="connsiteY96" fmla="*/ 138112 h 1247775"/>
+            <a:gd name="connsiteX97" fmla="*/ 2824163 w 3757613"/>
+            <a:gd name="connsiteY97" fmla="*/ 152400 h 1247775"/>
+            <a:gd name="connsiteX98" fmla="*/ 2852738 w 3757613"/>
+            <a:gd name="connsiteY98" fmla="*/ 161925 h 1247775"/>
+            <a:gd name="connsiteX99" fmla="*/ 2867025 w 3757613"/>
+            <a:gd name="connsiteY99" fmla="*/ 166687 h 1247775"/>
+            <a:gd name="connsiteX100" fmla="*/ 2895600 w 3757613"/>
+            <a:gd name="connsiteY100" fmla="*/ 190500 h 1247775"/>
+            <a:gd name="connsiteX101" fmla="*/ 2914650 w 3757613"/>
+            <a:gd name="connsiteY101" fmla="*/ 195262 h 1247775"/>
+            <a:gd name="connsiteX102" fmla="*/ 2938463 w 3757613"/>
+            <a:gd name="connsiteY102" fmla="*/ 214312 h 1247775"/>
+            <a:gd name="connsiteX103" fmla="*/ 2967038 w 3757613"/>
+            <a:gd name="connsiteY103" fmla="*/ 228600 h 1247775"/>
+            <a:gd name="connsiteX104" fmla="*/ 2990850 w 3757613"/>
+            <a:gd name="connsiteY104" fmla="*/ 257175 h 1247775"/>
+            <a:gd name="connsiteX105" fmla="*/ 3005138 w 3757613"/>
+            <a:gd name="connsiteY105" fmla="*/ 266700 h 1247775"/>
+            <a:gd name="connsiteX106" fmla="*/ 3033713 w 3757613"/>
+            <a:gd name="connsiteY106" fmla="*/ 290512 h 1247775"/>
+            <a:gd name="connsiteX107" fmla="*/ 3057525 w 3757613"/>
+            <a:gd name="connsiteY107" fmla="*/ 319087 h 1247775"/>
+            <a:gd name="connsiteX108" fmla="*/ 3081338 w 3757613"/>
+            <a:gd name="connsiteY108" fmla="*/ 342900 h 1247775"/>
+            <a:gd name="connsiteX109" fmla="*/ 3086100 w 3757613"/>
+            <a:gd name="connsiteY109" fmla="*/ 357187 h 1247775"/>
+            <a:gd name="connsiteX110" fmla="*/ 3114675 w 3757613"/>
+            <a:gd name="connsiteY110" fmla="*/ 381000 h 1247775"/>
+            <a:gd name="connsiteX111" fmla="*/ 3138488 w 3757613"/>
+            <a:gd name="connsiteY111" fmla="*/ 404812 h 1247775"/>
+            <a:gd name="connsiteX112" fmla="*/ 3162300 w 3757613"/>
+            <a:gd name="connsiteY112" fmla="*/ 428625 h 1247775"/>
+            <a:gd name="connsiteX113" fmla="*/ 3171825 w 3757613"/>
+            <a:gd name="connsiteY113" fmla="*/ 442912 h 1247775"/>
+            <a:gd name="connsiteX114" fmla="*/ 3200400 w 3757613"/>
+            <a:gd name="connsiteY114" fmla="*/ 457200 h 1247775"/>
+            <a:gd name="connsiteX115" fmla="*/ 3214688 w 3757613"/>
+            <a:gd name="connsiteY115" fmla="*/ 466725 h 1247775"/>
+            <a:gd name="connsiteX116" fmla="*/ 3233738 w 3757613"/>
+            <a:gd name="connsiteY116" fmla="*/ 476250 h 1247775"/>
+            <a:gd name="connsiteX117" fmla="*/ 3262313 w 3757613"/>
+            <a:gd name="connsiteY117" fmla="*/ 500062 h 1247775"/>
+            <a:gd name="connsiteX118" fmla="*/ 3276600 w 3757613"/>
+            <a:gd name="connsiteY118" fmla="*/ 509587 h 1247775"/>
+            <a:gd name="connsiteX119" fmla="*/ 3309938 w 3757613"/>
+            <a:gd name="connsiteY119" fmla="*/ 528637 h 1247775"/>
+            <a:gd name="connsiteX120" fmla="*/ 3324225 w 3757613"/>
+            <a:gd name="connsiteY120" fmla="*/ 542925 h 1247775"/>
+            <a:gd name="connsiteX121" fmla="*/ 3338513 w 3757613"/>
+            <a:gd name="connsiteY121" fmla="*/ 547687 h 1247775"/>
+            <a:gd name="connsiteX122" fmla="*/ 3348038 w 3757613"/>
+            <a:gd name="connsiteY122" fmla="*/ 561975 h 1247775"/>
+            <a:gd name="connsiteX123" fmla="*/ 3367088 w 3757613"/>
+            <a:gd name="connsiteY123" fmla="*/ 571500 h 1247775"/>
+            <a:gd name="connsiteX124" fmla="*/ 3390900 w 3757613"/>
+            <a:gd name="connsiteY124" fmla="*/ 590550 h 1247775"/>
+            <a:gd name="connsiteX125" fmla="*/ 3419475 w 3757613"/>
+            <a:gd name="connsiteY125" fmla="*/ 609600 h 1247775"/>
+            <a:gd name="connsiteX126" fmla="*/ 3443288 w 3757613"/>
+            <a:gd name="connsiteY126" fmla="*/ 628650 h 1247775"/>
+            <a:gd name="connsiteX127" fmla="*/ 3467100 w 3757613"/>
+            <a:gd name="connsiteY127" fmla="*/ 642937 h 1247775"/>
+            <a:gd name="connsiteX128" fmla="*/ 3481388 w 3757613"/>
+            <a:gd name="connsiteY128" fmla="*/ 652462 h 1247775"/>
+            <a:gd name="connsiteX129" fmla="*/ 3519488 w 3757613"/>
+            <a:gd name="connsiteY129" fmla="*/ 676275 h 1247775"/>
+            <a:gd name="connsiteX130" fmla="*/ 3538538 w 3757613"/>
+            <a:gd name="connsiteY130" fmla="*/ 685800 h 1247775"/>
+            <a:gd name="connsiteX131" fmla="*/ 3590925 w 3757613"/>
+            <a:gd name="connsiteY131" fmla="*/ 700087 h 1247775"/>
+            <a:gd name="connsiteX132" fmla="*/ 3648075 w 3757613"/>
+            <a:gd name="connsiteY132" fmla="*/ 709612 h 1247775"/>
+            <a:gd name="connsiteX133" fmla="*/ 3705225 w 3757613"/>
+            <a:gd name="connsiteY133" fmla="*/ 714375 h 1247775"/>
+            <a:gd name="connsiteX134" fmla="*/ 3729038 w 3757613"/>
+            <a:gd name="connsiteY134" fmla="*/ 719137 h 1247775"/>
+            <a:gd name="connsiteX135" fmla="*/ 3743325 w 3757613"/>
+            <a:gd name="connsiteY135" fmla="*/ 723900 h 1247775"/>
+            <a:gd name="connsiteX136" fmla="*/ 3757613 w 3757613"/>
+            <a:gd name="connsiteY136" fmla="*/ 723900 h 1247775"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX87" y="connsiteY87"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX88" y="connsiteY88"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX89" y="connsiteY89"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX90" y="connsiteY90"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX91" y="connsiteY91"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX92" y="connsiteY92"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX93" y="connsiteY93"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX94" y="connsiteY94"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX95" y="connsiteY95"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX96" y="connsiteY96"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX97" y="connsiteY97"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX98" y="connsiteY98"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX99" y="connsiteY99"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX100" y="connsiteY100"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX101" y="connsiteY101"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX102" y="connsiteY102"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX103" y="connsiteY103"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX104" y="connsiteY104"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX105" y="connsiteY105"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX106" y="connsiteY106"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX107" y="connsiteY107"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX108" y="connsiteY108"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX109" y="connsiteY109"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX110" y="connsiteY110"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX111" y="connsiteY111"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX112" y="connsiteY112"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX113" y="connsiteY113"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX114" y="connsiteY114"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX115" y="connsiteY115"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX116" y="connsiteY116"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX117" y="connsiteY117"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX118" y="connsiteY118"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX119" y="connsiteY119"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX120" y="connsiteY120"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX121" y="connsiteY121"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX122" y="connsiteY122"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX123" y="connsiteY123"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX124" y="connsiteY124"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX125" y="connsiteY125"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX126" y="connsiteY126"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX127" y="connsiteY127"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX128" y="connsiteY128"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX129" y="connsiteY129"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX130" y="connsiteY130"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX131" y="connsiteY131"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX132" y="connsiteY132"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX133" y="connsiteY133"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX134" y="connsiteY134"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX135" y="connsiteY135"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX136" y="connsiteY136"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3757613" h="1247775">
+              <a:moveTo>
+                <a:pt x="0" y="1247775"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="266700" y="1238250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="276345" y="1237783"/>
+                <a:pt x="285959" y="1236028"/>
+                <a:pt x="295275" y="1233487"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="303523" y="1231238"/>
+                <a:pt x="311054" y="1226884"/>
+                <a:pt x="319088" y="1223962"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="328524" y="1220531"/>
+                <a:pt x="339309" y="1220006"/>
+                <a:pt x="347663" y="1214437"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="366127" y="1202127"/>
+                <a:pt x="356520" y="1206722"/>
+                <a:pt x="376238" y="1200150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="381000" y="1196975"/>
+                <a:pt x="385406" y="1193185"/>
+                <a:pt x="390525" y="1190625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395015" y="1188380"/>
+                <a:pt x="400199" y="1187840"/>
+                <a:pt x="404813" y="1185862"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="411338" y="1183065"/>
+                <a:pt x="417699" y="1179859"/>
+                <a:pt x="423863" y="1176337"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="428833" y="1173497"/>
+                <a:pt x="432920" y="1169137"/>
+                <a:pt x="438150" y="1166812"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="447325" y="1162734"/>
+                <a:pt x="457745" y="1161777"/>
+                <a:pt x="466725" y="1157287"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="509315" y="1135992"/>
+                <a:pt x="491354" y="1142727"/>
+                <a:pt x="519113" y="1133475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="565580" y="1102496"/>
+                <a:pt x="493353" y="1151031"/>
+                <a:pt x="552450" y="1109662"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="561828" y="1103097"/>
+                <a:pt x="570165" y="1094232"/>
+                <a:pt x="581025" y="1090612"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="595313" y="1085850"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="630115" y="1062648"/>
+                <a:pt x="586362" y="1090964"/>
+                <a:pt x="628650" y="1066800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="633620" y="1063960"/>
+                <a:pt x="637818" y="1059835"/>
+                <a:pt x="642938" y="1057275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="647428" y="1055030"/>
+                <a:pt x="652735" y="1054757"/>
+                <a:pt x="657225" y="1052512"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="694146" y="1034051"/>
+                <a:pt x="649897" y="1050192"/>
+                <a:pt x="685800" y="1038225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="699851" y="1028858"/>
+                <a:pt x="702914" y="1028166"/>
+                <a:pt x="714375" y="1014412"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="718039" y="1010015"/>
+                <a:pt x="720097" y="1004403"/>
+                <a:pt x="723900" y="1000125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="776840" y="940569"/>
+                <a:pt x="732633" y="990467"/>
+                <a:pt x="766763" y="962025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="803433" y="931466"/>
+                <a:pt x="759863" y="961861"/>
+                <a:pt x="795338" y="938212"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="804702" y="924166"/>
+                <a:pt x="805401" y="921094"/>
+                <a:pt x="819150" y="909637"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="823547" y="905973"/>
+                <a:pt x="829160" y="903915"/>
+                <a:pt x="833438" y="900112"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="843506" y="891163"/>
+                <a:pt x="854541" y="882745"/>
+                <a:pt x="862013" y="871537"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="865188" y="866775"/>
+                <a:pt x="867230" y="861019"/>
+                <a:pt x="871538" y="857250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="880153" y="849712"/>
+                <a:pt x="892019" y="846295"/>
+                <a:pt x="900113" y="838200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="941842" y="796468"/>
+                <a:pt x="888914" y="847532"/>
+                <a:pt x="928688" y="814387"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="933862" y="810075"/>
+                <a:pt x="937659" y="804235"/>
+                <a:pt x="942975" y="800100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="952011" y="793072"/>
+                <a:pt x="962025" y="787400"/>
+                <a:pt x="971550" y="781050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="976313" y="777875"/>
+                <a:pt x="981791" y="775573"/>
+                <a:pt x="985838" y="771525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1003675" y="753687"/>
+                <a:pt x="993735" y="759367"/>
+                <a:pt x="1014413" y="752475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1017588" y="747712"/>
+                <a:pt x="1019468" y="741763"/>
+                <a:pt x="1023938" y="738187"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1027858" y="735051"/>
+                <a:pt x="1033867" y="735916"/>
+                <a:pt x="1038225" y="733425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1045117" y="729487"/>
+                <a:pt x="1051248" y="724303"/>
+                <a:pt x="1057275" y="719137"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1062389" y="714754"/>
+                <a:pt x="1066389" y="709162"/>
+                <a:pt x="1071563" y="704850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1075960" y="701186"/>
+                <a:pt x="1081803" y="699372"/>
+                <a:pt x="1085850" y="695325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1091463" y="689712"/>
+                <a:pt x="1094972" y="682302"/>
+                <a:pt x="1100138" y="676275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1112363" y="662012"/>
+                <a:pt x="1114013" y="662262"/>
+                <a:pt x="1128713" y="652462"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1150548" y="619710"/>
+                <a:pt x="1136903" y="627507"/>
+                <a:pt x="1162050" y="619125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1179512" y="592931"/>
+                <a:pt x="1162050" y="615156"/>
+                <a:pt x="1185863" y="595312"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1232672" y="556305"/>
+                <a:pt x="1172214" y="604198"/>
+                <a:pt x="1209675" y="566737"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1213722" y="562690"/>
+                <a:pt x="1219200" y="560387"/>
+                <a:pt x="1223963" y="557212"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1249366" y="519109"/>
+                <a:pt x="1216023" y="565153"/>
+                <a:pt x="1247775" y="533400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1251822" y="529352"/>
+                <a:pt x="1253636" y="523509"/>
+                <a:pt x="1257300" y="519112"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1261612" y="513938"/>
+                <a:pt x="1267276" y="509999"/>
+                <a:pt x="1271588" y="504825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1275252" y="500428"/>
+                <a:pt x="1277066" y="494585"/>
+                <a:pt x="1281113" y="490537"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1285160" y="486490"/>
+                <a:pt x="1291003" y="484676"/>
+                <a:pt x="1295400" y="481012"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1342208" y="442006"/>
+                <a:pt x="1281755" y="489897"/>
+                <a:pt x="1319213" y="452437"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1323260" y="448390"/>
+                <a:pt x="1329103" y="446576"/>
+                <a:pt x="1333500" y="442912"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1338674" y="438600"/>
+                <a:pt x="1342614" y="432937"/>
+                <a:pt x="1347788" y="428625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1352185" y="424961"/>
+                <a:pt x="1357678" y="422764"/>
+                <a:pt x="1362075" y="419100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1367249" y="414788"/>
+                <a:pt x="1371046" y="408947"/>
+                <a:pt x="1376363" y="404812"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1385399" y="397784"/>
+                <a:pt x="1395780" y="392631"/>
+                <a:pt x="1404938" y="385762"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1443038" y="357187"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1449388" y="352425"/>
+                <a:pt x="1454989" y="346450"/>
+                <a:pt x="1462088" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1483306" y="332291"/>
+                <a:pt x="1483019" y="333044"/>
+                <a:pt x="1504950" y="319087"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1514608" y="312941"/>
+                <a:pt x="1523709" y="305927"/>
+                <a:pt x="1533525" y="300037"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1541463" y="295275"/>
+                <a:pt x="1549933" y="291304"/>
+                <a:pt x="1557338" y="285750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1584219" y="265590"/>
+                <a:pt x="1558758" y="276749"/>
+                <a:pt x="1585913" y="261937"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1598378" y="255138"/>
+                <a:pt x="1612199" y="250763"/>
+                <a:pt x="1624013" y="242887"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1666875" y="214312"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1681163" y="204787"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1685925" y="201612"/>
+                <a:pt x="1690020" y="197072"/>
+                <a:pt x="1695450" y="195262"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1709738" y="190500"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1716088" y="185737"/>
+                <a:pt x="1721896" y="180150"/>
+                <a:pt x="1728788" y="176212"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1733146" y="173721"/>
+                <a:pt x="1738898" y="174235"/>
+                <a:pt x="1743075" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1778749" y="147667"/>
+                <a:pt x="1737680" y="163723"/>
+                <a:pt x="1771650" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1846330" y="102615"/>
+                <a:pt x="1731206" y="177552"/>
+                <a:pt x="1800225" y="138112"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1815331" y="129480"/>
+                <a:pt x="1818817" y="121673"/>
+                <a:pt x="1833563" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1838053" y="112055"/>
+                <a:pt x="1843360" y="111782"/>
+                <a:pt x="1847850" y="109537"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1852970" y="106977"/>
+                <a:pt x="1857018" y="102572"/>
+                <a:pt x="1862138" y="100012"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1866628" y="97767"/>
+                <a:pt x="1871811" y="97227"/>
+                <a:pt x="1876425" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1882951" y="92453"/>
+                <a:pt x="1888950" y="88522"/>
+                <a:pt x="1895475" y="85725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1900089" y="83747"/>
+                <a:pt x="1905273" y="83207"/>
+                <a:pt x="1909763" y="80962"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1914882" y="78402"/>
+                <a:pt x="1918820" y="73762"/>
+                <a:pt x="1924050" y="71437"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1947369" y="61073"/>
+                <a:pt x="1950359" y="63545"/>
+                <a:pt x="1971675" y="57150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1981292" y="54265"/>
+                <a:pt x="1990725" y="50800"/>
+                <a:pt x="2000250" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2009775" y="44450"/>
+                <a:pt x="2018921" y="39751"/>
+                <a:pt x="2028825" y="38100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2038350" y="36512"/>
+                <a:pt x="2048032" y="35679"/>
+                <a:pt x="2057400" y="33337"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2067140" y="30902"/>
+                <a:pt x="2076450" y="26987"/>
+                <a:pt x="2085975" y="23812"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2090738" y="22225"/>
+                <a:pt x="2095324" y="19948"/>
+                <a:pt x="2100263" y="19050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2117725" y="15875"/>
+                <a:pt x="2135028" y="11640"/>
+                <a:pt x="2152650" y="9525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2176119" y="6709"/>
+                <a:pt x="2289238" y="878"/>
+                <a:pt x="2305050" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2414588" y="4762"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2428935" y="5659"/>
+                <a:pt x="2443417" y="6407"/>
+                <a:pt x="2457450" y="9525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2472152" y="12792"/>
+                <a:pt x="2485458" y="21336"/>
+                <a:pt x="2500313" y="23812"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2513038" y="25933"/>
+                <a:pt x="2539399" y="30012"/>
+                <a:pt x="2552700" y="33337"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2566073" y="36680"/>
+                <a:pt x="2577695" y="43257"/>
+                <a:pt x="2590800" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2597010" y="49695"/>
+                <a:pt x="2603500" y="50800"/>
+                <a:pt x="2609850" y="52387"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2631223" y="63073"/>
+                <a:pt x="2631580" y="64375"/>
+                <a:pt x="2657475" y="71437"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2677967" y="77026"/>
+                <a:pt x="2678720" y="73739"/>
+                <a:pt x="2695575" y="80962"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2727679" y="94721"/>
+                <a:pt x="2702312" y="86712"/>
+                <a:pt x="2738438" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2742928" y="107020"/>
+                <a:pt x="2747963" y="107950"/>
+                <a:pt x="2752725" y="109537"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2762250" y="115887"/>
+                <a:pt x="2770671" y="124336"/>
+                <a:pt x="2781300" y="128587"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2789238" y="131762"/>
+                <a:pt x="2797640" y="133960"/>
+                <a:pt x="2805113" y="138112"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2812052" y="141967"/>
+                <a:pt x="2817063" y="148850"/>
+                <a:pt x="2824163" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2833143" y="156890"/>
+                <a:pt x="2843213" y="158750"/>
+                <a:pt x="2852738" y="161925"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2867025" y="166687"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2876550" y="174625"/>
+                <a:pt x="2884968" y="184121"/>
+                <a:pt x="2895600" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2901213" y="193868"/>
+                <a:pt x="2908928" y="192083"/>
+                <a:pt x="2914650" y="195262"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2923536" y="200198"/>
+                <a:pt x="2929843" y="208924"/>
+                <a:pt x="2938463" y="214312"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2972827" y="235790"/>
+                <a:pt x="2931872" y="199296"/>
+                <a:pt x="2967038" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3013847" y="267607"/>
+                <a:pt x="2953389" y="219714"/>
+                <a:pt x="2990850" y="257175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2994897" y="261222"/>
+                <a:pt x="3000741" y="263036"/>
+                <a:pt x="3005138" y="266700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3041808" y="297258"/>
+                <a:pt x="2998238" y="266863"/>
+                <a:pt x="3033713" y="290512"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3057362" y="325987"/>
+                <a:pt x="3026967" y="282417"/>
+                <a:pt x="3057525" y="319087"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3077369" y="342900"/>
+                <a:pt x="3055144" y="325438"/>
+                <a:pt x="3081338" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3082925" y="347662"/>
+                <a:pt x="3083315" y="353010"/>
+                <a:pt x="3086100" y="357187"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3093434" y="368188"/>
+                <a:pt x="3104133" y="373972"/>
+                <a:pt x="3114675" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3140077" y="419102"/>
+                <a:pt x="3106735" y="373059"/>
+                <a:pt x="3138488" y="404812"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3170241" y="436565"/>
+                <a:pt x="3124198" y="403223"/>
+                <a:pt x="3162300" y="428625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3165475" y="433387"/>
+                <a:pt x="3167778" y="438865"/>
+                <a:pt x="3171825" y="442912"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3185473" y="456559"/>
+                <a:pt x="3184908" y="449454"/>
+                <a:pt x="3200400" y="457200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3205520" y="459760"/>
+                <a:pt x="3209718" y="463885"/>
+                <a:pt x="3214688" y="466725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3220852" y="470247"/>
+                <a:pt x="3227574" y="472728"/>
+                <a:pt x="3233738" y="476250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3256308" y="489147"/>
+                <a:pt x="3240826" y="482156"/>
+                <a:pt x="3262313" y="500062"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3266710" y="503726"/>
+                <a:pt x="3271943" y="506260"/>
+                <a:pt x="3276600" y="509587"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3301828" y="527608"/>
+                <a:pt x="3286752" y="520909"/>
+                <a:pt x="3309938" y="528637"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3314700" y="533400"/>
+                <a:pt x="3318621" y="539189"/>
+                <a:pt x="3324225" y="542925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3328402" y="545710"/>
+                <a:pt x="3334593" y="544551"/>
+                <a:pt x="3338513" y="547687"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3342983" y="551263"/>
+                <a:pt x="3343641" y="558311"/>
+                <a:pt x="3348038" y="561975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3353492" y="566520"/>
+                <a:pt x="3360738" y="568325"/>
+                <a:pt x="3367088" y="571500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3388389" y="603451"/>
+                <a:pt x="3363297" y="572148"/>
+                <a:pt x="3390900" y="590550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3426574" y="614333"/>
+                <a:pt x="3385504" y="598275"/>
+                <a:pt x="3419475" y="609600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3427413" y="615950"/>
+                <a:pt x="3434960" y="622821"/>
+                <a:pt x="3443288" y="628650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3450871" y="633958"/>
+                <a:pt x="3459251" y="638031"/>
+                <a:pt x="3467100" y="642937"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3471954" y="645971"/>
+                <a:pt x="3476625" y="649287"/>
+                <a:pt x="3481388" y="652462"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3499713" y="679951"/>
+                <a:pt x="3479816" y="656439"/>
+                <a:pt x="3519488" y="676275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3525838" y="679450"/>
+                <a:pt x="3532012" y="683003"/>
+                <a:pt x="3538538" y="685800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3550510" y="690931"/>
+                <a:pt x="3586379" y="699178"/>
+                <a:pt x="3590925" y="700087"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3613918" y="704686"/>
+                <a:pt x="3623125" y="706986"/>
+                <a:pt x="3648075" y="709612"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3667086" y="711613"/>
+                <a:pt x="3686175" y="712787"/>
+                <a:pt x="3705225" y="714375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3713163" y="715962"/>
+                <a:pt x="3721185" y="717174"/>
+                <a:pt x="3729038" y="719137"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3733908" y="720355"/>
+                <a:pt x="3738373" y="723075"/>
+                <a:pt x="3743325" y="723900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3748023" y="724683"/>
+                <a:pt x="3752850" y="723900"/>
+                <a:pt x="3757613" y="723900"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E874BD0-9309-4529-AD47-3F84D3D7273B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="2281238"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45AD877-FF22-4CAA-8F68-604C3C6619EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="2276476"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Oval 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6692D225-3CB9-4587-A84F-B728F6CC212F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2252664"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E304D97E-0FF4-4205-9159-4E6244EE40F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="2209801"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22695B0-820B-4C3A-812A-E54C2A2BEEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3043238" y="2138363"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538BD5C6-BFD5-4D7B-953A-19599B151304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3195638" y="2033588"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EACE634-B0A9-416C-BBA5-C7CB68222E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333751" y="1885950"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FBD370-C93B-49DE-AD1A-F51C105E248C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486151" y="1728787"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF63E9AF-85ED-47A2-8640-60B622704F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638551" y="1581149"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3A9282-75AF-4D08-8896-826E76837C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3786188" y="1414461"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A021E826-C00D-4A22-AC78-C70EC547F007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3948113" y="1266823"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C92052-D808-4C31-AD43-78D453DE12D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095751" y="1152523"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DB87A8-2C5A-412E-8BDE-55833E22BC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238626" y="1042985"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Oval 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FED8578-EA5F-48E0-A132-A5108F65E908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4414838" y="938210"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>128589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06351F6A-590A-4F0D-8A6B-AD36D6D1E52F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648201" y="862010"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128589</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Oval 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23CD376-9AA5-4AEB-A8E3-031FFB7F6402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838701" y="852485"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E94B05-0260-4ABE-83F2-CE868471A85E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5033963" y="885823"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Oval 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3789E4-E11F-443C-A730-F821116F2328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214938" y="957260"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Oval 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101A0367-05F9-404E-B1A7-4E54D3FF6D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5357813" y="1042985"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Oval 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C191A4-FFDF-4C18-A9DF-167ACBDB0732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505451" y="1152523"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEE9729-E07E-4AEC-90F7-C2F774E80039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619751" y="1295398"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>42864</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480E6F2A-9279-47D0-B2B5-D2048ADDBFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757864" y="1400173"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180977</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>42865</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Oval 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1314CCD5-1B13-4406-A735-76633AEEF58C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895977" y="1514473"/>
+          <a:ext cx="52388" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27AD5C6-F693-41B3-8A39-BF73FF76E798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4924425" y="1414463"/>
+          <a:ext cx="514349" cy="176808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>153746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE5E6AE-15FE-4016-BB8F-DEAED9816835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="83"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="733425"/>
+          <a:ext cx="0" cy="144221"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2055BA14-B378-4C29-8CAF-B3AA9DFF7DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="704850"/>
+          <a:ext cx="0" cy="144221"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>172796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F55A1D-4686-4F59-958A-D46B55242EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5067300" y="709613"/>
+          <a:ext cx="4763" cy="187083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139458</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4AD13D-38C2-4AC3-9597-CF088A62C304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5800726" y="1095375"/>
+          <a:ext cx="9524" cy="310908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3750,7 +7828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ABF74F-3CB2-4440-85D0-5B996860E316}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
@@ -3759,4 +7837,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC7F09A-00BE-454C-85FC-51954A47E8D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="BH15" sqref="BH15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBDC243-9763-4513-9241-C60604971C07}">
+  <dimension ref="L4:AK17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="12:37" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="12:37" x14ac:dyDescent="0.3">
+      <c r="AE6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="12:37" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="15:26" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/important doc/methodology.xlsx
+++ b/important doc/methodology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06299F-32A0-4CF0-9DD0-551C80EBE241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACE2ADF-146C-4264-859A-353A7F1EA31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FB16783-DF01-4F64-8543-96B2916458A1}"/>
   </bookViews>
   <sheets>
     <sheet name="over-rall" sheetId="1" r:id="rId1"/>
@@ -2573,16 +2573,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>20436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>134736</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2597,12 +2597,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4644390" y="375285"/>
-          <a:ext cx="1828800" cy="1312545"/>
+          <a:off x="6809163" y="3377681"/>
+          <a:ext cx="1859973" cy="1054619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2627,31 +2630,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>(B11,</a:t>
+            <a:t>(</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>B08,B04) /</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>(</a:t>
@@ -2670,9 +2650,797 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>)/</a:t>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Sentinel-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>images datasets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2015-2019</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(for 8 paddy seasonal)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF2F618-CAF2-4172-A118-4A45762FFB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132320" y="504825"/>
+          <a:ext cx="2133600" cy="1026795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Label images dataset into 4 classes(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>langing, vegitative, reproduction,ripening</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) each of bands combinations using local agriculture data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEA4A12-0962-4B59-B1E0-0DF91048A48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217920" y="2377440"/>
+          <a:ext cx="1493520" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Train</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> set of each bands combinations images dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F68A89-C217-4DFA-810A-B8F15072F8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8473440" y="2346960"/>
+          <a:ext cx="1493520" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>test set of each bands combinations images dataset</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83CC54-08C0-4359-B04D-D27D3224A666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="3703320"/>
+          <a:ext cx="1493520" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>multiclass SVM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> classifier model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>5927</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>165947</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD6F785-B7A9-406D-ADBF-86C5ACA4E7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9742594" y="7766473"/>
+          <a:ext cx="1523153" cy="722207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Best</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> bands combination for paddy stage classification</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>134736</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9439CF9-3AC7-4B5C-8F75-4372660443CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8669136" y="3895639"/>
+          <a:ext cx="724939" cy="9352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335B7163-3D82-4360-9C2C-5911DE06279D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7171373" y="1324927"/>
+          <a:ext cx="821055" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DBC6A6-D078-4156-82D6-6A639BA3B4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8309610" y="1451610"/>
+          <a:ext cx="800100" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422F6F4B-E76F-4CA6-9FA0-24AF94BE6270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6793230" y="3326130"/>
+          <a:ext cx="807720" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3033B71E-15E3-4B1D-8C85-B67757DAA972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8652510" y="3394710"/>
+          <a:ext cx="838200" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>177377</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>183304</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90783C66-7419-43C4-A105-EA2863FBA987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10498244" y="7279640"/>
+          <a:ext cx="5927" cy="486833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>73141</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>1098</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1C4594-B2EC-4881-81F9-4486E6C900E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12292850" y="3374679"/>
+          <a:ext cx="1867593" cy="1036839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
@@ -2716,7 +3484,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>images dataset</a:t>
+            <a:t>images datasets</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2740,23 +3508,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76142</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>190442</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF2F618-CAF2-4172-A118-4A45762FFB69}"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA1A0FA-6322-4B17-B67C-5FC10933DF9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,12 +3532,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7132320" y="504825"/>
-          <a:ext cx="2133600" cy="1026795"/>
+          <a:off x="9580360" y="1591310"/>
+          <a:ext cx="1859973" cy="1064145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2794,27 +3565,55 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Rearrange</a:t>
+            <a:t>(B11,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> images dataset into 4 classes(</a:t>
+            <a:t>B08,B04) </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>langing, vegitative, reproduction,ripening</a:t>
-          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>) each of bands combinations using local agriculture data</a:t>
+            <a:t>(Sentinel-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>images datasets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2015-2019</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(for 8 paddy seasonal)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2824,303 +3623,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>113953</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEA4A12-0962-4B59-B1E0-0DF91048A48A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6217920" y="2377440"/>
-          <a:ext cx="1493520" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Train</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> set of each bands combinations images dataset</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F68A89-C217-4DFA-810A-B8F15072F8FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8473440" y="2346960"/>
-          <a:ext cx="1493520" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>test set of each bands combinations images dataset</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83CC54-08C0-4359-B04D-D27D3224A666}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3703320"/>
-          <a:ext cx="1493520" cy="518160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>multiclass SVM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> classifier model</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD6F785-B7A9-406D-ADBF-86C5ACA4E7A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7452360" y="4701540"/>
-          <a:ext cx="1493520" cy="708660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Best</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> bands combination for paddy stage classification</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>113348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>126683</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>63038</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9439CF9-3AC7-4B5C-8F75-4372660443CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C570364-4343-45AD-87DB-6D9C73841755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6473190" y="1018223"/>
-          <a:ext cx="659130" cy="13335"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11557808" y="3888711"/>
+          <a:ext cx="724939" cy="9352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3148,260 +3676,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>106681</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>56111</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>65463</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335B7163-3D82-4360-9C2C-5911DE06279D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7171373" y="1324927"/>
-          <a:ext cx="821055" cy="1234440"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DBC6A6-D078-4156-82D6-6A639BA3B4BF}"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2C3A9A-2C64-44EC-B2D7-34406A8CEFA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8309610" y="1451610"/>
-          <a:ext cx="800100" cy="1021080"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422F6F4B-E76F-4CA6-9FA0-24AF94BE6270}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6793230" y="3326130"/>
-          <a:ext cx="807720" cy="464820"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3033B71E-15E3-4B1D-8C85-B67757DAA972}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="9" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8652510" y="3394710"/>
-          <a:ext cx="838200" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90783C66-7419-43C4-A105-EA2863FBA987}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8176260" y="4221480"/>
-          <a:ext cx="22860" cy="480060"/>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="10172353" y="3015876"/>
+          <a:ext cx="724939" cy="9352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7828,8 +8128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ABF74F-3CB2-4440-85D0-5B996860E316}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BO6" sqref="BO6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7858,7 +8158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBDC243-9763-4513-9241-C60604971C07}">
   <dimension ref="L4:AK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
